--- a/TARALAKAW Lequigan & Guk-Ong.xlsx
+++ b/TARALAKAW Lequigan & Guk-Ong.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lequigan, Jeaan Claude\Midterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiptb36\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F8DB79C-1CC4-4FF2-B8E2-8644DA70CF5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DBED330-0DAF-4CEC-BE50-A66FAE2AB4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{EAA73734-C49E-478F-B78C-2CC3F2E96DF0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EAA73734-C49E-478F-B78C-2CC3F2E96DF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="User Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Route Search" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>1. Test Plan Overview</t>
   </si>
@@ -41,67 +39,247 @@
     <t>Objective: To ensure that TaraLakaw functions properly in providing efficient pedestrian navigation for crowded fiesta events.</t>
   </si>
   <si>
-    <t>Prepared By: Jean Claude Lequigan &amp; Kenn Guk-Ong</t>
-  </si>
-  <si>
-    <t>Date: March 31, 2025</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
     <t>TL-001</t>
   </si>
   <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>User logs into the application</t>
-  </si>
-  <si>
-    <t>Pre-conditions</t>
-  </si>
-  <si>
-    <t>User must be registered</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
-    <t>Expected Output</t>
-  </si>
-  <si>
-    <t>User is redirected to the home page</t>
-  </si>
-  <si>
-    <t>Actual Output</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>1. Open the app                                         2. Enter valid username &amp; password                                    3. Click login</t>
-  </si>
-  <si>
     <t>TL-002</t>
   </si>
   <si>
-    <t>User searches for a walking route</t>
-  </si>
-  <si>
-    <t>User is logged in</t>
-  </si>
-  <si>
     <t>1. Enter start location 2. Enter destination 3. Click search</t>
   </si>
   <si>
     <t>The best walking route is displayed</t>
+  </si>
+  <si>
+    <t>Test Case 1: User Login</t>
+  </si>
+  <si>
+    <t>1. Open the app 2. Enter valid/invalid username &amp; password 3. Click login</t>
+  </si>
+  <si>
+    <t>If valid, user is redirected to the home page. If invalid, an error message appears.</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2. Test Scenarios and Cases</t>
+  </si>
+  <si>
+    <t>Test Case 2: Route Search</t>
+  </si>
+  <si>
+    <t>Route displayed correctly</t>
+  </si>
+  <si>
+    <t>Test Case 3: Real-Time Traffic Update</t>
+  </si>
+  <si>
+    <t>TL-003</t>
+  </si>
+  <si>
+    <t>1. User receives a congestion alert 2. Alternative route suggestion appears</t>
+  </si>
+  <si>
+    <t>The app displays an alternate route</t>
+  </si>
+  <si>
+    <t>Suggested alternative route correctly</t>
+  </si>
+  <si>
+    <t>Test Case 4: Offline Mode</t>
+  </si>
+  <si>
+    <t>TL-004</t>
+  </si>
+  <si>
+    <t>1. User launches app without internet 2. Selects a pre-downloaded route</t>
+  </si>
+  <si>
+    <t>Offline map and routes are accessible</t>
+  </si>
+  <si>
+    <t>Offline mode functions correctly</t>
+  </si>
+  <si>
+    <t>Test Case 5: Reporting Roadblocks</t>
+  </si>
+  <si>
+    <t>TL-005</t>
+  </si>
+  <si>
+    <t>1. Click on "Report Roadblock" 2. Select roadblock location 3. Submit report</t>
+  </si>
+  <si>
+    <t>The app updates the route and notifies other users</t>
+  </si>
+  <si>
+    <t>Reports successfully registered and route updated</t>
+  </si>
+  <si>
+    <t>Test Case 6: Admin Access and Control</t>
+  </si>
+  <si>
+    <t>TL-006</t>
+  </si>
+  <si>
+    <t>1. Login as admin 2. Navigate to user reports section 3. View, approve, or decline reports</t>
+  </si>
+  <si>
+    <t>Admin successfully manages reports</t>
+  </si>
+  <si>
+    <t>Admin functionalities work as expected</t>
+  </si>
+  <si>
+    <t>Test Case 7: GPS Accuracy</t>
+  </si>
+  <si>
+    <t>TL-007</t>
+  </si>
+  <si>
+    <t>1. Open the app 2. Enable location services 3. Compare location with actual surroundings</t>
+  </si>
+  <si>
+    <t>GPS location matches actual position</t>
+  </si>
+  <si>
+    <t>GPS accuracy within acceptable range</t>
+  </si>
+  <si>
+    <t>Test Case 8: User Profile Update</t>
+  </si>
+  <si>
+    <t>TL-008</t>
+  </si>
+  <si>
+    <t>1. Navigate to profile settings 2. Edit details 3. Save changes</t>
+  </si>
+  <si>
+    <t>Profile updates successfully</t>
+  </si>
+  <si>
+    <t>Changes saved correctly</t>
+  </si>
+  <si>
+    <t>Test Case 9: Logout Functionality</t>
+  </si>
+  <si>
+    <t>TL-009</t>
+  </si>
+  <si>
+    <t>1. Click logout button 2. Confirm logout</t>
+  </si>
+  <si>
+    <t>User is logged out and redirected to login page</t>
+  </si>
+  <si>
+    <t>Logout works correctly</t>
+  </si>
+  <si>
+    <t>Prepared By: Guk-ong &amp; Lequigan</t>
+  </si>
+  <si>
+    <t>Date: April 02, 2025</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Pre-requisite</t>
+  </si>
+  <si>
+    <t>Valid/Invalid User</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Username, Password</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>Route Search</t>
+  </si>
+  <si>
+    <t>Valid User</t>
+  </si>
+  <si>
+    <t>Location details</t>
+  </si>
+  <si>
+    <t>Real-Time Traffic Update</t>
+  </si>
+  <si>
+    <t>Valid User, Live Data Access</t>
+  </si>
+  <si>
+    <t>Live traffic updates</t>
+  </si>
+  <si>
+    <t>Offline Mode</t>
+  </si>
+  <si>
+    <t>Valid User, Downloaded Offline Map</t>
+  </si>
+  <si>
+    <t>Pre-downloaded maps</t>
+  </si>
+  <si>
+    <t>Reporting Roadblocks</t>
+  </si>
+  <si>
+    <t>Valid User, Internet Access</t>
+  </si>
+  <si>
+    <t>Admin Access and Control</t>
+  </si>
+  <si>
+    <t>Valid Admin</t>
+  </si>
+  <si>
+    <t>Admin credentials, Reports data</t>
+  </si>
+  <si>
+    <t>GPS Accuracy</t>
+  </si>
+  <si>
+    <t>Valid User, GPS Enabled</t>
+  </si>
+  <si>
+    <t>GPS coordinates</t>
+  </si>
+  <si>
+    <t>User Profile Update</t>
+  </si>
+  <si>
+    <t>User profile details</t>
+  </si>
+  <si>
+    <t>Logout Functionality</t>
   </si>
 </sst>
 </file>
@@ -161,31 +339,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,223 +672,677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E12E0F-C2AD-4B06-B61C-A3935AD387CB}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A791D6B-EA78-40B9-B334-E5B35FC5C3A1}">
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01150D0C-2B32-43DC-878F-0AC5FBFB4CCD}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2003D2-F3FD-4903-A7D6-A3236DECDE8E}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>